--- a/corpus_primer_parcial.xlsx
+++ b/corpus_primer_parcial.xlsx
@@ -1,17 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja 1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+  <si>
+    <t xml:space="preserve">Corpus:</t>
+  </si>
   <si>
     <t xml:space="preserve">Minuta No. 731.- Actividades del Departamento de Seguridad Informática (Junio 2020)
 Dependencia: Coordinación General de Tecnologías de Información y Comunicación
@@ -26,19 +38,19 @@
 </t>
   </si>
   <si>
-    <t>%18``no he podido entrar al TEAM a partir de la plataforma de la UADY, aparezco solo como invitado``</t>
-  </si>
-  <si>
-    <t>%18``Soy alumno de FCA y en sicei no me permite entrar ya que me dice que esta mal la contraseña o usuario o el codigo de verificación.``</t>
-  </si>
-  <si>
-    <t>%18``Estimados compañeros, 
+    <t xml:space="preserve">%18``no he podido entrar al TEAM a partir de la plataforma de la UADY, aparezco solo como invitado``</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%18``Soy alumno de FCA y en sicei no me permite entrar ya que me dice que esta mal la contraseña o usuario o el codigo de verificación.``</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%18``Estimados compañeros, 
 Solicito su apoyo para dar salida a internet del servidor con IP: 148.209.1.117
 Es importante comentar qué este servidor funciona como pruebas para UADY Virtual.
 Saludos.``</t>
   </si>
   <si>
-    <t>Minuta No. 734.- Actividades del Departamento de Gestión de Servicios de T.I  (Junio 2020) 
+    <t xml:space="preserve">Minuta No. 734.- Actividades del Departamento de Gestión de Servicios de T.I  (Junio 2020) 
 Dependencia: Coordinación General de Tecnologías de Información y Comunicación
 Participantes
 1.-Sosa Ignacio Isabel(isabel.sosa)
@@ -51,17 +63,17 @@
 Se solicita su apoyo para realizar Prueba TEAMs-Sesion de Consejo (CGTIC)</t>
   </si>
   <si>
-    <t>%18``Buenas tardes, me comunico con usted para solicitar su apoyo para restablecer o recuperar la contraseña de mi correo institucional (a12000501@alumnos.uady.mx), ya que no recuerdo la contraseña y al intentar recuperarla con la página no me permite continuar y me indica que me comunique con el administrador, al igual que por varios intentos al escribir la contraseña se me indicó que había sido bloqueada. Agradezco su pronta respuesta ya que es una herramienta de trabajo necesaria. Saludos cordiales. ``</t>
-  </si>
-  <si>
-    <t>%18``Solicito su apoyo para recuperar la contraseña de mi cuenta.
+    <t xml:space="preserve">%18``Buenas tardes, me comunico con usted para solicitar su apoyo para restablecer o recuperar la contraseña de mi correo institucional (a12000501@alumnos.uady.mx), ya que no recuerdo la contraseña y al intentar recuperarla con la página no me permite continuar y me indica que me comunique con el administrador, al igual que por varios intentos al escribir la contraseña se me indicó que había sido bloqueada. Agradezco su pronta respuesta ya que es una herramienta de trabajo necesaria. Saludos cordiales. ``</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%18``Solicito su apoyo para recuperar la contraseña de mi cuenta.
 Muchas gracias``</t>
   </si>
   <si>
-    <t>%18``Apoyo para efectuar los monitoreos de temperaturas, en los horarios de 5 y 7PM.``</t>
-  </si>
-  <si>
-    <t>Minuta No. 771.- Apoyo a evento "Sesión extraordinaria XVIII Consejo Universitario"
+    <t xml:space="preserve">%18``Apoyo para efectuar los monitoreos de temperaturas, en los horarios de 5 y 7PM.``</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minuta No. 771.- Apoyo a evento "Sesión extraordinaria XVIII Consejo Universitario"
 Dependencia: Coordinación General de Tecnologías de Información y Comunicación
 Participantes
 1.-Lara Peniche Yesli Vanessa(yesli.lara)
@@ -78,7 +90,7 @@
 Fecha: Martes 30 Junio a las 9:00 am</t>
   </si>
   <si>
-    <t>%18``Buen día,
+    <t xml:space="preserve">%18``Buen día,
 Se solicitan las siguientes sesiones de zoom para 3 exámenes profesionales que se llevarán a cabo el 9 de julio:
 ANDREA REGINA MUGARTEGUI de 9:30 a 11 hrs.
 GUSTAVO ADOLFO CHUC LAUREAN de 11 a 12 hrs.
@@ -88,14 +100,14 @@
 ``</t>
   </si>
   <si>
-    <t>%18``Se solicita el correo para la estudiante:
+    <t xml:space="preserve">%18``Se solicita el correo para la estudiante:
 1-Pamela Jacqueline Buenfil Canto
 2-Licenciatura en Historia 
 3-Matrícula :19210961
 Gracias``</t>
   </si>
   <si>
-    <t>Minuta No. 725.- Actividades del Departamento de Infraestructura de Redes y Servicios de Telemática (JUNIO 2020)
+    <t xml:space="preserve">Minuta No. 725.- Actividades del Departamento de Infraestructura de Redes y Servicios de Telemática (JUNIO 2020)
 Dependencia: Coordinación General de Tecnologías de Información y Comunicación
 Participantes
 1.-Osorno Herrera Fernando Jafet(fernando.osorno)
@@ -109,7 +121,7 @@
 Acuerdo: Diagnóstico de Equipo de Telecomunicaciones en CIL/Confucio</t>
   </si>
   <si>
-    <t>Minuta No. 725.- Actividades del Departamento de Infraestructura de Redes y Servicios de Telemática (JUNIO 2020)
+    <t xml:space="preserve">Minuta No. 725.- Actividades del Departamento de Infraestructura de Redes y Servicios de Telemática (JUNIO 2020)
 Dependencia: Coordinación General de Tecnologías de Información y Comunicación
 Participantes
 1.-Osorno Herrera Fernando Jafet(fernando.osorno)
@@ -123,7 +135,7 @@
 Acuerdo: se solicita su asitencia a la Reunion de avances Checklist de Dependencias</t>
   </si>
   <si>
-    <t>Minuta No. 725.- Actividades del Departamento de Infraestructura de Redes y Servicios de Telemática (JUNIO 2020)
+    <t xml:space="preserve">Minuta No. 725.- Actividades del Departamento de Infraestructura de Redes y Servicios de Telemática (JUNIO 2020)
 Dependencia: Coordinación General de Tecnologías de Información y Comunicación
 Participantes
 1.-Osorno Herrera Fernando Jafet(fernando.osorno)
@@ -137,7 +149,7 @@
 Acuerdo: Apoyo para la Publicación del Dashboard Inventario de Switches Telemtica.</t>
   </si>
   <si>
-    <t>Minuta No. 725.- Actividades del Departamento de Infraestructura de Redes y Servicios de Telemática (JUNIO 2020)
+    <t xml:space="preserve">Minuta No. 725.- Actividades del Departamento de Infraestructura de Redes y Servicios de Telemática (JUNIO 2020)
 Dependencia: Coordinación General de Tecnologías de Información y Comunicación
 Participantes
 1.-Osorno Herrera Fernando Jafet(fernando.osorno)
@@ -151,7 +163,7 @@
 Acuerdo: Participación en reunión de seguimiento a actividades DIRST, 10 de Junio 2020</t>
   </si>
   <si>
-    <t>Minuta No. 725.- Actividades del Departamento de Infraestructura de Redes y Servicios de Telemática (JUNIO 2020)
+    <t xml:space="preserve">Minuta No. 725.- Actividades del Departamento de Infraestructura de Redes y Servicios de Telemática (JUNIO 2020)
 Dependencia: Coordinación General de Tecnologías de Información y Comunicación
 Participantes
 1.-Osorno Herrera Fernando Jafet(fernando.osorno)
@@ -165,7 +177,7 @@
 Acuerdo: Monitoreo de Servicios coordinación General de Salud UADY 11 Junio 2020</t>
   </si>
   <si>
-    <t>Minuta No. 725.- Actividades del Departamento de Infraestructura de Redes y Servicios de Telemática (JUNIO 2020)
+    <t xml:space="preserve">Minuta No. 725.- Actividades del Departamento de Infraestructura de Redes y Servicios de Telemática (JUNIO 2020)
 Dependencia: Coordinación General de Tecnologías de Información y Comunicación
 Participantes
 1.-Osorno Herrera Fernando Jafet(fernando.osorno)
@@ -179,7 +191,7 @@
 Acuerdo: Monitoreo de Servicios coordinación General de Salud UADY 12 Junio 2020</t>
   </si>
   <si>
-    <t>Minuta No. 725.- Actividades del Departamento de Infraestructura de Redes y Servicios de Telemática (JUNIO 2020)
+    <t xml:space="preserve">Minuta No. 725.- Actividades del Departamento de Infraestructura de Redes y Servicios de Telemática (JUNIO 2020)
 Dependencia: Coordinación General de Tecnologías de Información y Comunicación
 Participantes
 1.-Osorno Herrera Fernando Jafet(fernando.osorno)
@@ -193,7 +205,7 @@
 Acuerdo:  Supervisión demonitoreo de servicios, Semana 8 al 12 de Junio 2020</t>
   </si>
   <si>
-    <t>Minuta No. 725.- Actividades del Departamento de Infraestructura de Redes y Servicios de Telemática (JUNIO 2020)
+    <t xml:space="preserve">Minuta No. 725.- Actividades del Departamento de Infraestructura de Redes y Servicios de Telemática (JUNIO 2020)
 Dependencia: Coordinación General de Tecnologías de Información y Comunicación
 Participantes
 1.-Osorno Herrera Fernando Jafet(fernando.osorno)
@@ -207,7 +219,7 @@
 Acuerdo: Reprogramación de Ampliación de Direccionamiento  SIU-Alumnos</t>
   </si>
   <si>
-    <t>Minuta No. 725.- Actividades del Departamento de Infraestructura de Redes y Servicios de Telemática (JUNIO 2020)
+    <t xml:space="preserve">Minuta No. 725.- Actividades del Departamento de Infraestructura de Redes y Servicios de Telemática (JUNIO 2020)
 Dependencia: Coordinación General de Tecnologías de Información y Comunicación
 Participantes
 1.-Osorno Herrera Fernando Jafet(fernando.osorno)
@@ -221,7 +233,7 @@
 Acuerdo: Actualización de Agenda y bitácora de atención a DES, Ampliación de Direccionamiento SIU-Alumnos</t>
   </si>
   <si>
-    <t>Minuta No. 725.- Actividades del Departamento de Infraestructura de Redes y Servicios de Telemática (JUNIO 2020)
+    <t xml:space="preserve">Minuta No. 725.- Actividades del Departamento de Infraestructura de Redes y Servicios de Telemática (JUNIO 2020)
 Dependencia: Coordinación General de Tecnologías de Información y Comunicación
 Participantes
 1.-Osorno Herrera Fernando Jafet(fernando.osorno)
@@ -235,7 +247,7 @@
 Acuerdo: Verificación del estado actual de infraestructura de red de las dependencias</t>
   </si>
   <si>
-    <t>Minuta No. 725.- Actividades del Departamento de Infraestructura de Redes y Servicios de Telemática (JUNIO 2020)
+    <t xml:space="preserve">Minuta No. 725.- Actividades del Departamento de Infraestructura de Redes y Servicios de Telemática (JUNIO 2020)
 Dependencia: Coordinación General de Tecnologías de Información y Comunicación
 Participantes
 1.-Osorno Herrera Fernando Jafet(fernando.osorno)
@@ -250,10 +262,10 @@
 -Verificación de perfiles de usuario de Grafana</t>
   </si>
   <si>
-    <t>%18``Buenas tardes, tengo un pequeño inconveniente, les comento, lo qué pasa es que estoy en proceso de liberar mi servicio social y me pidieron que pague el derecho de liberación, lo pagué y me llegó a mi correo el comprobante de pago, sin embargo en mi escuela me piden que tiene que me solicitan es el DERECHO EDUCATIVO que genera la pagina de finanzas, es una hoja horizontal con mi nombre y licenciatura y unos números importantes para ellos, sin embargo no me llegó a mi correo y me dijeron que te daba la opción de generarla después de pagar, pero yo no recuerdo haber visto que me saliera esa opción, será que ustedes me puedan ayudar a que yo la obtenga? Estuve hablando a su número pero no me contestan y la fecha límite para que yo lo envíe es el 30, espero su respuesta porfavor, muchas gracias, le adjunto el comprobante de pago que me llegó a mi correo y mis datos ``</t>
-  </si>
-  <si>
-    <t>Minuta No. 679.- Supervisión a Mantenimientos de ISP Bestel 2020
+    <t xml:space="preserve">%18``Buenas tardes, tengo un pequeño inconveniente, les comento, lo qué pasa es que estoy en proceso de liberar mi servicio social y me pidieron que pague el derecho de liberación, lo pagué y me llegó a mi correo el comprobante de pago, sin embargo en mi escuela me piden que tiene que me solicitan es el DERECHO EDUCATIVO que genera la pagina de finanzas, es una hoja horizontal con mi nombre y licenciatura y unos números importantes para ellos, sin embargo no me llegó a mi correo y me dijeron que te daba la opción de generarla después de pagar, pero yo no recuerdo haber visto que me saliera esa opción, será que ustedes me puedan ayudar a que yo la obtenga? Estuve hablando a su número pero no me contestan y la fecha límite para que yo lo envíe es el 30, espero su respuesta porfavor, muchas gracias, le adjunto el comprobante de pago que me llegó a mi correo y mis datos ``</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minuta No. 679.- Supervisión a Mantenimientos de ISP Bestel 2020
 Dependencia: Coordinación General de Tecnologías de Información y Comunicación
 Participantes
 1.-Serrano Piña Emmanuel(spina)
@@ -300,7 +312,7 @@
 </t>
   </si>
   <si>
-    <t>%18``Se requiere su amable apoyo para la actualización de las autoridades en el SAU CGTIC con la información que a continuación presento:
+    <t xml:space="preserve">%18``Se requiere su amable apoyo para la actualización de las autoridades en el SAU CGTIC con la información que a continuación presento:
 Coordinadora de BEL
 LE. María Edith Díaz Barahona, MEE
 edith.diaz@correo.uady.mx
@@ -316,28 +328,28 @@
 De antemano y por su atención, gracias. ``</t>
   </si>
   <si>
-    <t>%18``Solicito la actualización del directorio de la página WEB oficial de BEL http://www.bel.uady.mx/page.php?id=23
+    <t xml:space="preserve">%18``Solicito la actualización del directorio de la página WEB oficial de BEL http://www.bel.uady.mx/page.php?id=23
 modificando la información del directorio en Responsable de plataforma actualizando de "Ing. Luis Alberto Baeza Marrufo" a "LATI. Braulio Neri Rosales" y correo "braulio.neri@correo.uady.mx". En repuesta a los cambios del personal relacionados.  
 De antemano y por su atención, gracias. ``</t>
   </si>
   <si>
-    <t>%18``Buenas tardes
+    <t xml:space="preserve">%18``Buenas tardes
 Perdí la contraseña de mi correo estudiantil y me gustaría recuperarla.``</t>
   </si>
   <si>
-    <t>%18``Estoy tratando de entrar al curso de administradores de prueba y no funciona la.clave que mandaron en el correo (Ingreso#2020), tampoco funciona el usuario y contraseña que generé para ingresar al SIPI, es decir no tengo acceso alguno al curso que debo tomar hoy.
+    <t xml:space="preserve">%18``Estoy tratando de entrar al curso de administradores de prueba y no funciona la.clave que mandaron en el correo (Ingreso#2020), tampoco funciona el usuario y contraseña que generé para ingresar al SIPI, es decir no tengo acceso alguno al curso que debo tomar hoy.
 Espero que puedan reestablecer mi contraseña o generar una nueva, gracias.``</t>
   </si>
   <si>
-    <t>%18``Buenas noches solicitamos de su apoyo para enviar un flyer promocional por la cuenta del webmaster a la Comunidad de la UADY.
+    <t xml:space="preserve">%18``Buenas noches solicitamos de su apoyo para enviar un flyer promocional por la cuenta del webmaster a la Comunidad de la UADY.
 Seria del día sábado 27 de junio al día lunes 13 de julio del presente. todos los días de ser posible.
 Muchas gracias de antemano por el apoyo``</t>
   </si>
   <si>
-    <t>%18``Buenas noches, mi nombre es Cristina Eugenia Ortiz Uc, egresada de la facultad de Psicología, me gustaría saber si ya puedo disponer de mi título, el cuál ya fue solicitado.``</t>
-  </si>
-  <si>
-    <t>%18``Buenas noches.
+    <t xml:space="preserve">%18``Buenas noches, mi nombre es Cristina Eugenia Ortiz Uc, egresada de la facultad de Psicología, me gustaría saber si ya puedo disponer de mi título, el cuál ya fue solicitado.``</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%18``Buenas noches.
 Por medio del presente solicito amablemente su apoyo para crear la cuenta  controlEscolar@alumnos.uady.mx
 para fines de realizar inscripciones via online.
 Agradezco se antemano y quedo pendiente.
@@ -349,68 +361,68 @@
 </t>
   </si>
   <si>
-    <t>%18``Al querer generar recibo honorarios asimilables en el SII-CITRIX  la aplicación se queda leyendo, quisiera saber si existe alguna restricción.
+    <t xml:space="preserve">%18``Al querer generar recibo honorarios asimilables en el SII-CITRIX  la aplicación se queda leyendo, quisiera saber si existe alguna restricción.
 [MDS] Este servicio fue ingresado por la Mesa de Servicios de la CGTIC toda vez que el usuario ha emitido su reporte a través de correo electrónico o por teléfono. ``</t>
   </si>
   <si>
-    <t>%18``Buen día, requiero de la ayuda de Universidad Autónoma De Yucatán para restablecer la contraseña de mi correo institucional el cual no he usado en un tiempo y he olvidado la contraseña de este mismo correo. Por su atención, gracias.
+    <t xml:space="preserve">%18``Buen día, requiero de la ayuda de Universidad Autónoma De Yucatán para restablecer la contraseña de mi correo institucional el cual no he usado en un tiempo y he olvidado la contraseña de este mismo correo. Por su atención, gracias.
 Anexo mi numero de teléfono:9995490839``</t>
   </si>
   <si>
-    <t>%18``Buen día no me permite realizar la recuperación de mi contraseña para poder realizar el exámen de adminición``</t>
-  </si>
-  <si>
-    <t>%18``Nunca he usado el correo de la Universidad, el A14001586@alumnos.uady.mx y de este modo al querer usarlo en estos días, ignoro la contraseña que tenga ya que nunca lo he usado. Y no puedo restablecer la contraseña porque me indica que nunca ha sido registrado.``</t>
-  </si>
-  <si>
-    <t>%18``Olvidé mi usuario y contraseña, como personal de apoyo para el proceso de ingreso al bachillerato``</t>
-  </si>
-  <si>
-    <t>%18``Buenas tardes, quisiera replicar la encuesta de evaluación docente a todos los cursos ofertados en este periodo de la UAEV. La mayoría los tiene, solo hacen falta tres (los cuales especificaría por correo electrónico)``</t>
-  </si>
-  <si>
-    <t>%18``buenas tardes no me deja entrar dice usuario o contraseña invalidos ,no pudo presentar la prueba``</t>
-  </si>
-  <si>
-    <t>%18``Hola, buenas tardes, olvide mi contraseña y la requiero para ingresar a la capacitación del Exani I, les agradeceria me ayudaran a recuperarla.
+    <t xml:space="preserve">%18``Buen día no me permite realizar la recuperación de mi contraseña para poder realizar el exámen de adminición``</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%18``Nunca he usado el correo de la Universidad, el A14001586@alumnos.uady.mx y de este modo al querer usarlo en estos días, ignoro la contraseña que tenga ya que nunca lo he usado. Y no puedo restablecer la contraseña porque me indica que nunca ha sido registrado.``</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%18``Olvidé mi usuario y contraseña, como personal de apoyo para el proceso de ingreso al bachillerato``</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%18``Buenas tardes, quisiera replicar la encuesta de evaluación docente a todos los cursos ofertados en este periodo de la UAEV. La mayoría los tiene, solo hacen falta tres (los cuales especificaría por correo electrónico)``</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%18``buenas tardes no me deja entrar dice usuario o contraseña invalidos ,no pudo presentar la prueba``</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%18``Hola, buenas tardes, olvide mi contraseña y la requiero para ingresar a la capacitación del Exani I, les agradeceria me ayudaran a recuperarla.
 Gracias.``</t>
   </si>
   <si>
-    <t>%18``El día que realicé mi registro me dieron un nombre de usuario "97203" y mi respectiva contraseña, sin embargo no me permite ingresar con estos mismos datos``</t>
-  </si>
-  <si>
-    <t>%18``e olvidado mi nombre de usuario cual es?``</t>
-  </si>
-  <si>
-    <t>%18``perdon pero cual es mi nombre de usuario y contraseña``</t>
-  </si>
-  <si>
-    <t>%18``Solicutud de Kardex o Historial académico actualizado , porfa c:``</t>
-  </si>
-  <si>
-    <t>%18``Solicito la asignación de licencia de profesor en el dominio @alumnos para las siguientes cuentas:
+    <t xml:space="preserve">%18``El día que realicé mi registro me dieron un nombre de usuario "97203" y mi respectiva contraseña, sin embargo no me permite ingresar con estos mismos datos``</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%18``e olvidado mi nombre de usuario cual es?``</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%18``perdon pero cual es mi nombre de usuario y contraseña``</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%18``Solicutud de Kardex o Historial académico actualizado , porfa c:``</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%18``Solicito la asignación de licencia de profesor en el dominio @alumnos para las siguientes cuentas:
 carlos.ojeda@alumnos.uady.mx
 arturo.bravo@alumnos.uady.mx
 De antemano muchas gracias.``</t>
   </si>
   <si>
-    <t>%18``necesito ingresar para poder presentar mi examen``</t>
-  </si>
-  <si>
-    <t>%18``reestablecimiento de la contraseña``</t>
-  </si>
-  <si>
-    <t>%18``Facultad de derecho ``</t>
-  </si>
-  <si>
-    <t>%18``buenos Dias , Como puedo recuperar mi Nombre de usuario ``</t>
-  </si>
-  <si>
-    <t>%18``buenas tarde quisiera informar que hubo un error al para el diagnostico de prueba por lo que no se pudo mandar los archivos word y power point 
+    <t xml:space="preserve">%18``necesito ingresar para poder presentar mi examen``</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%18``reestablecimiento de la contraseña``</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%18``Facultad de derecho ``</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%18``buenos Dias , Como puedo recuperar mi Nombre de usuario ``</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%18``buenas tarde quisiera informar que hubo un error al para el diagnostico de prueba por lo que no se pudo mandar los archivos word y power point 
 que se podría hacer en este caso ya que no me aparecio el correo donde se iba a mandar los documentos``</t>
   </si>
   <si>
-    <t>%18``Buenas tardes:
+    <t xml:space="preserve">%18``Buenas tardes:
  Se solicitan la creación de las cuentas de correo del tipo @alumnos.uady.mx para los usuarios siguientes:
 1.- José Arturo Cen Puc
 2.- Mariana Méndez Sábido
@@ -423,16 +435,16 @@
 Gracias.``</t>
   </si>
   <si>
-    <t>%18``La contraseña de mi correo no es aceptada ya es la segunda ocasión que se bloquea y no puedo ingresar  
+    <t xml:space="preserve">%18``La contraseña de mi correo no es aceptada ya es la segunda ocasión que se bloquea y no puedo ingresar  
 cel. 9911027120
 correo: miguel.gonzalez@correo.uady.mx``</t>
   </si>
   <si>
-    <t>%18``Se solicita su apoyo para instalar un equipo de cómputo en la sala de juntas de coordinación y la aplicación de Teams de microsoft para que el personal de manual pueda tomar la capacitación de las medidas preventivas y sanitización de la Unidad Académica para el regreso a la nueva normaildad. 
+    <t xml:space="preserve">%18``Se solicita su apoyo para instalar un equipo de cómputo en la sala de juntas de coordinación y la aplicación de Teams de microsoft para que el personal de manual pueda tomar la capacitación de las medidas preventivas y sanitización de la Unidad Académica para el regreso a la nueva normaildad. 
 Gracias.``</t>
   </si>
   <si>
-    <t>%18``Se solicita su apoyo para publicar de manera urgente,  en la página Web y FaceBook de la Unidad Académica la oferta del Tercer Recursamiento para alumnos de tercer grado e irregulares. Los documentos son:
+    <t xml:space="preserve">%18``Se solicita su apoyo para publicar de manera urgente,  en la página Web y FaceBook de la Unidad Académica la oferta del Tercer Recursamiento para alumnos de tercer grado e irregulares. Los documentos son:
 1. Oferta Tercer Intercurso
 2. Lineamientos
 3. Carta compromiso
@@ -445,17 +457,39 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <color theme="1"/>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -463,562 +497,416 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
-  <a:themeElements>
-    <a:clrScheme name="Sheets">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4285F4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="EA4335"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="FBBC04"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="34A853"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="FF6D01"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="46BDC6"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="1155CC"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="1155CC"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Sheets">
-      <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:A65"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="78.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="78.25"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="s">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="s">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="s">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="s">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="s">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="s">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="s">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="s">
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="s">
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="s">
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="s">
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="s">
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="s">
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="s">
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="s">
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="s">
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="s">
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="s">
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="s">
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="s">
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="s">
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="s">
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="s">
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="s">
         <v>54</v>
       </c>
     </row>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>